--- a/2024_04_19_X線/data/data.xlsx
+++ b/2024_04_19_X線/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiang\Documents\latex\TUS_B3_reports\2024_04_19_X線\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9E2BB9-23AA-464B-922A-AC31D9BB4EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30489125-BBDF-4369-899C-EAD8D73BB1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="799" activeTab="6" xr2:uid="{EB3D8C0B-2E54-48BC-9994-5F75A5673E97}"/>
   </bookViews>
   <sheets>
     <sheet name="結晶構造因子" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'0419_reuslt_Cu'!$G$2:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'0419_reuslt_Fe'!$G$6:$J$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">結晶構造因子!$K$1:$L$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="38">
   <si>
     <t>結晶構造因子</t>
     <rPh sb="0" eb="2">
@@ -147,13 +148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>結果</t>
-    <rPh sb="0" eb="2">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4-4i</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -188,7 +182,68 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>333 or 511</t>
+    <t>F_hkl NaCl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F_hkl KCl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F_hkl CsCl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bragg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外挿法</t>
+    <rPh sb="0" eb="3">
+      <t>ガイソウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外挿</t>
+    <rPh sb="0" eb="2">
+      <t>ガイソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nelson-Riley</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nelson Riley</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hkl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考値</t>
+    <rPh sb="0" eb="3">
+      <t>サンコウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TAのメールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8423518@ed.tus.ac.jp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -196,7 +251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,8 +266,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +285,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,18 +304,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -525,20 +597,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AE0391-3175-44AF-9BCF-55D27B187292}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="109" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -557,8 +648,17 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -577,8 +677,20 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <f>IF(ISEVEN(ROUND($B3/100,0)),E3*1.5,E3*0.75)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>IF(ISEVEN(ROUND($B3/100,0)),E3*2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>IF(ISEVEN(MOD(B3,10)+MOD(ROUND(B3/10,0),10)+MOD(ROUND(B3/100,0),10)),3,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
@@ -597,8 +709,20 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <f>IF(ISEVEN(ROUND(B4/100,0)),E4*1.5,E4*0.75)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>IF(ISEVEN(ROUND($B4/100,0)),E4*2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I41" si="0">IF(ISEVEN(MOD(B4,10)+MOD(ROUND(B4/10,0),10)+MOD(ROUND(B4/100,0),10)),3,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
@@ -615,10 +739,22 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <f>IF(ISEVEN(ROUND(B5/100,0)),E5*1.5,E5*0.75)</f>
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H41" si="1">IF(ISEVEN(ROUND($B5/100,0)),E5*2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -637,8 +773,20 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <f t="shared" ref="G6:G41" si="2">IF(ISEVEN(ROUND(B6/100,0)),E6*1.5,E6*0.75)</f>
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
@@ -657,8 +805,20 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -677,8 +837,20 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -697,8 +869,20 @@
       <c r="F9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -717,8 +901,20 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -737,8 +933,20 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -757,8 +965,20 @@
       <c r="F12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -777,8 +997,20 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -797,8 +1029,20 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -817,8 +1061,20 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>16</v>
       </c>
@@ -837,8 +1093,20 @@
       <c r="F16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>17</v>
       </c>
@@ -857,8 +1125,20 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>18</v>
       </c>
@@ -877,8 +1157,20 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -897,8 +1189,20 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -915,10 +1219,22 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -937,8 +1253,20 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -957,8 +1285,20 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -977,8 +1317,20 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>24</v>
       </c>
@@ -997,8 +1349,20 @@
       <c r="F24">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>25</v>
       </c>
@@ -1017,8 +1381,20 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1037,8 +1413,20 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1057,8 +1445,20 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1077,8 +1477,20 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1097,8 +1509,20 @@
       <c r="F29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1115,10 +1539,22 @@
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1137,8 +1573,20 @@
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1157,32 +1605,337 @@
       <c r="F32">
         <v>0</v>
       </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>521</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>440</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>441</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>522</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>433</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>530</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>531</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <v>442</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>36</v>
+      </c>
+      <c r="B41">
+        <v>600</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="L1" r:id="rId1" xr:uid="{14324CB0-7367-42D7-AA59-1066DDA7DD90}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1193,18 +1946,21 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
       <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" cm="1">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" cm="1">
         <f t="array" ref="F1:G1">LINEST(K6:K9,J6:J9,FALSE)</f>
-        <v>2.8770474527582115</v>
+        <v>2.8723374166235343</v>
       </c>
       <c r="G1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1215,8 +1971,21 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:34">
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2:G2">LINEST(N6:N9,M6:M9)</f>
+        <v>1.8892024853821075E-3</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2.8688211659317426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1226,8 +1995,14 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:34">
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1244,19 +2019,25 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
         <v>2</v>
       </c>
       <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1275,49 +2056,33 @@
         <f>($C$6/C6)^2</f>
         <v>1</v>
       </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
         <v>110</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2">
+      <c r="J6">
         <f>2*SIN(RADIANS(B6/2))</f>
         <v>0.75790667384569466</v>
       </c>
-      <c r="K6" s="2">
-        <f>SQRT(G6)*$B$1</f>
+      <c r="K6">
+        <f>SQRT(MOD(H6,10)^2+MOD(ROUND(H6/10,0),10)^2+MOD(ROUND(H6/100,0),10)^2)*$B$1</f>
         <v>2.1805334654162043</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-    </row>
-    <row r="7" spans="1:34">
+      <c r="M6">
+        <f>(COS(RADIANS(B6/2))^2)/SIN(RADIANS(B6/2))+(COS(RADIANS(B6/2))^2)/RADIANS(B6/2)</f>
+        <v>4.4633193958419799</v>
+      </c>
+      <c r="N6">
+        <f>K6/J6</f>
+        <v>2.8770474527582115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1336,51 +2101,35 @@
         <f t="shared" ref="E7:E9" si="2">($C$6/C7)^2</f>
         <v>2.0040210646580161</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <f>$E7*F$6</f>
         <v>2.0040210646580161</v>
       </c>
-      <c r="G7" s="2">
-        <f t="shared" ref="G7:AH9" si="3">$E7*G$6</f>
+      <c r="G7">
+        <f t="shared" ref="G7:G9" si="3">$E7*G$6</f>
         <v>4.0080421293160322</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
         <v>200</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2">
+      <c r="J7">
         <f>2*SIN(RADIANS(B7/2))</f>
         <v>1.072918842522024</v>
       </c>
-      <c r="K7" s="2">
-        <f t="shared" ref="K7:K9" si="4">SQRT(G7)*$B$1</f>
-        <v>3.0868384228942776</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-    </row>
-    <row r="8" spans="1:34">
+      <c r="K7">
+        <f>SQRT(MOD(H7,10)^2+MOD(ROUND(H7/10,0),10)^2+MOD(ROUND(H7/100,0),10)^2)*$B$1</f>
+        <v>3.0837400000000001</v>
+      </c>
+      <c r="M7">
+        <f>(COS(RADIANS(B7/2))^2)/SIN(RADIANS(B7/2))+(COS(RADIANS(B7/2))^2)/RADIANS(B7/2)</f>
+        <v>2.5854135765768325</v>
+      </c>
+      <c r="N7">
+        <f>K7/J7</f>
+        <v>2.8741596081501379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1399,51 +2148,35 @@
         <f t="shared" si="2"/>
         <v>3.0106497788561586</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" ref="F8:U9" si="5">$E8*F$6</f>
+      <c r="F8">
+        <f t="shared" ref="F8:F9" si="4">$E8*F$6</f>
         <v>3.0106497788561586</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <f>$E8*G$6</f>
         <v>6.0212995577123172</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
         <v>211</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2">
+      <c r="J8">
         <f>2*SIN(RADIANS(B8/2))</f>
         <v>1.3150608547341813</v>
       </c>
-      <c r="K8" s="2">
-        <f t="shared" si="4"/>
-        <v>3.7834924823350127</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-    </row>
-    <row r="9" spans="1:34">
+      <c r="K8">
+        <f>SQRT(MOD(H8,10)^2+MOD(ROUND(H8/10,0),10)^2+MOD(ROUND(H8/100,0),10)^2)*$B$1</f>
+        <v>3.7767947497050987</v>
+      </c>
+      <c r="M8">
+        <f>(COS(RADIANS(B8/2))^2)/SIN(RADIANS(B8/2))+(COS(RADIANS(B8/2))^2)/RADIANS(B8/2)</f>
+        <v>1.6544267810150486</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N7:N9" si="5">K8/J8</f>
+        <v>2.8719543556549083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -1463,23 +2196,31 @@
         <v>4.0181467707488627</v>
       </c>
       <c r="F9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.0181467707488627</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
         <v>8.0362935414977255</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9">
         <v>220</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9">
         <f>2*SIN(RADIANS(B9/2))</f>
         <v>1.5192478464478387</v>
       </c>
-      <c r="K9" s="2">
-        <f t="shared" si="4"/>
-        <v>4.3709481467311528</v>
+      <c r="K9">
+        <f>SQRT(MOD(H9,10)^2+MOD(ROUND(H9/10,0),10)^2+MOD(ROUND(H9/100,0),10)^2)*$B$1</f>
+        <v>4.3610669308324086</v>
+      </c>
+      <c r="M9">
+        <f>(COS(RADIANS(B9/2))^2)/SIN(RADIANS(B9/2))+(COS(RADIANS(B9/2))^2)/RADIANS(B9/2)</f>
+        <v>1.0470853203955317</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>2.8705434343902754</v>
       </c>
     </row>
   </sheetData>
@@ -1490,15 +2231,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B147CC1-BC8C-4B99-B096-FEB85461EDAE}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1509,18 +2260,21 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
       <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" cm="1">
-        <f t="array" ref="F1:G1">LINEST(L6:L10,K6:K10)</f>
-        <v>3.6266903830300494</v>
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" cm="1">
+        <f t="array" ref="F1:G1">LINEST(L6:L10,K6:K10,FALSE)</f>
+        <v>3.6218907699838478</v>
       </c>
       <c r="G1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1531,8 +2285,21 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2:G2">LINEST(O6:O10,N6:N10)</f>
+        <v>1.7829589487122993E-3</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3.6184075306611927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1542,8 +2309,14 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1560,19 +2333,25 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1600,24 +2379,27 @@
       <c r="H6">
         <v>3</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
         <v>111</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2">
+      <c r="K6">
         <f>2*SIN(RADIANS(B6/2))</f>
         <v>0.73637308306284976</v>
       </c>
-      <c r="L6" s="2">
-        <f>SQRT(H6)*$B$1</f>
+      <c r="L6">
+        <f>SQRT(MOD(I6,10)^2+MOD(ROUND(I6/10,0),10)^2+MOD(ROUND(I6/100,0),10)^2)*$B$1</f>
         <v>2.6705971786662248</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="N6">
+        <f>(COS(RADIANS(B6/2))^2)/SIN(RADIANS(B6/2))+(COS(RADIANS(B6/2))^2)/RADIANS(B6/2)</f>
+        <v>4.6404173396915223</v>
+      </c>
+      <c r="O6">
+        <f>L6/K6</f>
+        <v>3.626690383030049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1644,28 +2426,31 @@
         <f t="shared" ref="G7:H10" si="3">$E7*G$6</f>
         <v>2.6689422251037609</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <f t="shared" si="3"/>
         <v>4.0034133376556413</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
         <v>200</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2">
+      <c r="K7">
         <f>2*SIN(RADIANS(B7/2))</f>
         <v>0.85065310912628112</v>
       </c>
-      <c r="L7" s="2">
-        <f>SQRT(H7)*$B$1</f>
-        <v>3.0850554501628946</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="L7">
+        <f>SQRT(MOD(I7,10)^2+MOD(ROUND(I7/10,0),10)^2+MOD(ROUND(I7/100,0),10)^2)*$B$1</f>
+        <v>3.0837400000000001</v>
+      </c>
+      <c r="N7">
+        <f>(COS(RADIANS(B7/2))^2)/SIN(RADIANS(B7/2))+(COS(RADIANS(B7/2))^2)/RADIANS(B7/2)</f>
+        <v>3.7902630224483866</v>
+      </c>
+      <c r="O7">
+        <f>L7/K7</f>
+        <v>3.625143982800882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1692,28 +2477,31 @@
         <f t="shared" si="4"/>
         <v>5.3469599267692631</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <f t="shared" si="4"/>
         <v>8.0204398901538951</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
         <v>220</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2">
+      <c r="K8">
         <f>2*SIN(RADIANS(B8/2))</f>
         <v>1.2040274047824144</v>
       </c>
-      <c r="L8" s="2">
-        <f>SQRT(H8)*$B$1</f>
-        <v>4.3666346098290116</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="L8">
+        <f>SQRT(MOD(I8,10)^2+MOD(ROUND(I8/10,0),10)^2+MOD(ROUND(I8/100,0),10)^2)*$B$1</f>
+        <v>4.3610669308324086</v>
+      </c>
+      <c r="N8">
+        <f>(COS(RADIANS(B8/2))^2)/SIN(RADIANS(B8/2))+(COS(RADIANS(B8/2))^2)/RADIANS(B8/2)</f>
+        <v>2.0460117281276853</v>
+      </c>
+      <c r="O8">
+        <f>L8/K8</f>
+        <v>3.6220661701803358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -1740,28 +2528,31 @@
         <f t="shared" si="3"/>
         <v>7.3568240755805929</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <f t="shared" si="3"/>
         <v>11.035236113370889</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9">
         <v>311</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2">
+      <c r="K9">
         <f>2*SIN(RADIANS(B9/2))</f>
         <v>1.4123036865980336</v>
       </c>
-      <c r="L9" s="2">
-        <f>SQRT(H9)*$B$1</f>
-        <v>5.1219881981029731</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="L9">
+        <f>SQRT(MOD(I9,10)^2+MOD(ROUND(I9/10,0),10)^2+MOD(ROUND(I9/100,0),10)^2)*$B$1</f>
+        <v>5.1138042655052809</v>
+      </c>
+      <c r="N9">
+        <f>(COS(RADIANS(B9/2))^2)/SIN(RADIANS(B9/2))+(COS(RADIANS(B9/2))^2)/RADIANS(B9/2)</f>
+        <v>1.3494110468993508</v>
+      </c>
+      <c r="O9">
+        <f>L9/K9</f>
+        <v>3.6208956430776205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -1788,21 +2579,28 @@
         <f t="shared" si="3"/>
         <v>8.0277858507866249</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <f t="shared" si="3"/>
         <v>12.041678776179937</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
         <v>222</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2">
+      <c r="K10">
         <f>2*SIN(RADIANS(B10/2))</f>
         <v>1.475301543271166</v>
       </c>
-      <c r="L10" s="2">
-        <f>SQRT(H10)*$B$1</f>
-        <v>5.3504619190509279</v>
+      <c r="L10">
+        <f>SQRT(MOD(I10,10)^2+MOD(ROUND(I10/10,0),10)^2+MOD(ROUND(I10/100,0),10)^2)*$B$1</f>
+        <v>5.3411943573324496</v>
+      </c>
+      <c r="N10">
+        <f>(COS(RADIANS(B10/2))^2)/SIN(RADIANS(B10/2))+(COS(RADIANS(B10/2))^2)/RADIANS(B10/2)</f>
+        <v>1.1675220765444849</v>
+      </c>
+      <c r="O10">
+        <f>L10/K10</f>
+        <v>3.6204085745680792</v>
       </c>
     </row>
   </sheetData>
@@ -1813,15 +2611,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EBBEA8-5786-4977-8983-49D688EA22E1}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1833,17 +2641,17 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" cm="1">
-        <f t="array" ref="F1:G1">LINEST(L6:L12,K6:K12)</f>
-        <v>5.4567671420820369</v>
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" cm="1">
+        <f t="array" ref="F1:G1">LINEST(L6:L12,K6:K12,FALSE)</f>
+        <v>5.4413650085826317</v>
       </c>
       <c r="G1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1854,8 +2662,18 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2:G2">LINEST(O6:O12,N6:N12)</f>
+        <v>2.7907673392398189E-3</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5.4353584976650113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1865,8 +2683,14 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1883,19 +2707,25 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1926,17 +2756,24 @@
       <c r="I6">
         <v>111</v>
       </c>
-      <c r="K6" s="2">
-        <f>2*SIN(RADIANS(B6/2))</f>
+      <c r="K6">
+        <f t="shared" ref="K6:K12" si="0">2*SIN(RADIANS(B6/2))</f>
         <v>0.48941014141337436</v>
       </c>
-      <c r="L6" s="2">
-        <f>SQRT(H6)*$B$1</f>
+      <c r="L6">
+        <f>SQRT(MOD(I6,10)^2+MOD(ROUND(I6/10,0),10)^2+MOD(ROUND(I6/100,0),10)^2)*$B$1</f>
         <v>2.6705971786662248</v>
       </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <f>(COS(RADIANS(B6/2))^2)/SIN(RADIANS(B6/2))+(COS(RADIANS(B6/2))^2)/RADIANS(B6/2)</f>
+        <v>7.6446805611503539</v>
+      </c>
+      <c r="O6">
+        <f>L6/K6</f>
+        <v>5.4567671420820378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1944,15 +2781,15 @@
         <v>47.193269999999998</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C12" si="0">$B$1/(2*SIN(RADIANS(B7/2)))</f>
+        <f t="shared" ref="C7:C12" si="1">$B$1/(2*SIN(RADIANS(B7/2)))</f>
         <v>1.9259161085194485</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D12" si="1">1/C7^2</f>
+        <f t="shared" ref="D7:D12" si="2">1/C7^2</f>
         <v>0.26960334031476496</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E12" si="2">($C$6/C7)^2</f>
+        <f t="shared" ref="E7:E12" si="3">($C$6/C7)^2</f>
         <v>2.6759306675891903</v>
       </c>
       <c r="F7">
@@ -1960,27 +2797,34 @@
         <v>2.6759306675891903</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:H12" si="3">$E7*G$6</f>
+        <f t="shared" ref="G7:H12" si="4">$E7*G$6</f>
         <v>5.3518613351783806</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.0277920027675709</v>
       </c>
       <c r="I7">
         <v>220</v>
       </c>
-      <c r="K7" s="2">
-        <f>2*SIN(RADIANS(B7/2))</f>
+      <c r="K7">
+        <f t="shared" si="0"/>
         <v>0.80059042716316209</v>
       </c>
-      <c r="L7" s="2">
-        <f>SQRT(H7)*$B$1</f>
-        <v>4.3686355372093661</v>
-      </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="L7">
+        <f>SQRT(MOD(I7,10)^2+MOD(ROUND(I7/10,0),10)^2+MOD(ROUND(I7/100,0),10)^2)*$B$1</f>
+        <v>4.3610669308324086</v>
+      </c>
+      <c r="N7">
+        <f>(COS(RADIANS(B7/2))^2)/SIN(RADIANS(B7/2))+(COS(RADIANS(B7/2))^2)/RADIANS(B7/2)</f>
+        <v>4.1369195213956091</v>
+      </c>
+      <c r="O7">
+        <f>L7/K7</f>
+        <v>5.4473133613220357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1988,43 +2832,50 @@
         <v>56.030740000000002</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6413055319229761</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.37121125334572541</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6844334933770346</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:H12" si="4">$E8*F$6</f>
+        <f t="shared" ref="F8:H12" si="5">$E8*F$6</f>
         <v>3.6844334933770346</v>
       </c>
       <c r="G8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.3688669867540693</v>
       </c>
       <c r="H8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.053300480131103</v>
       </c>
       <c r="I8">
         <v>311</v>
       </c>
-      <c r="K8" s="2">
-        <f>2*SIN(RADIANS(B8/2))</f>
+      <c r="K8">
+        <f t="shared" si="0"/>
         <v>0.93941680571412201</v>
       </c>
-      <c r="L8" s="2">
-        <f>SQRT(H8)*$B$1</f>
-        <v>5.1261787581404858</v>
-      </c>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="L8">
+        <f>SQRT(MOD(I8,10)^2+MOD(ROUND(I8/10,0),10)^2+MOD(ROUND(I8/100,0),10)^2)*$B$1</f>
+        <v>5.1138042655052809</v>
+      </c>
+      <c r="N8">
+        <f>(COS(RADIANS(B8/2))^2)/SIN(RADIANS(B8/2))+(COS(RADIANS(B8/2))^2)/RADIANS(B8/2)</f>
+        <v>3.2532128512359257</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8:O12" si="6">L8/K8</f>
+        <v>5.4435946157231987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -2032,43 +2883,50 @@
         <v>69.03819</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3604394483766102</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.54030821014242369</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.3627944957296014</v>
       </c>
       <c r="F9">
+        <f t="shared" si="5"/>
+        <v>5.3627944957296014</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="4"/>
-        <v>5.3627944957296014</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
         <v>10.725588991459203</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.088383487188803</v>
       </c>
       <c r="I9">
         <v>400</v>
       </c>
-      <c r="K9" s="2">
-        <f>2*SIN(RADIANS(B9/2))</f>
+      <c r="K9">
+        <f t="shared" si="0"/>
         <v>1.1333617250219317</v>
       </c>
-      <c r="L9" s="2">
-        <f>SQRT(H9)*$B$1</f>
-        <v>6.1844910211930939</v>
-      </c>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="L9">
+        <f>SQRT(MOD(I9,10)^2+MOD(ROUND(I9/10,0),10)^2+MOD(ROUND(I9/100,0),10)^2)*$B$1</f>
+        <v>6.1674800000000003</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N8:N12" si="7">(COS(RADIANS(B9/2))^2)/SIN(RADIANS(B9/2))+(COS(RADIANS(B9/2))^2)/RADIANS(B9/2)</f>
+        <v>2.3247932700032479</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
+        <v>5.441757793506441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -2076,42 +2934,50 @@
         <v>76.284829999999999</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.248238678660071</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.64180741227489857</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.3702183184649659</v>
       </c>
       <c r="F10">
+        <f t="shared" si="5"/>
+        <v>6.3702183184649659</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="4"/>
-        <v>6.3702183184649659</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
         <v>12.740436636929932</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.110654955394899</v>
       </c>
       <c r="I10">
         <v>331</v>
       </c>
-      <c r="K10" s="2">
-        <f>2*SIN(RADIANS(B10/2))</f>
+      <c r="K10">
+        <f t="shared" si="0"/>
         <v>1.2352365187522705</v>
       </c>
-      <c r="L10" s="2">
-        <f>SQRT(H10)*$B$1</f>
-        <v>6.7403980482271928</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="L10">
+        <f>SQRT(MOD(I10,10)^2+MOD(ROUND(I10/10,0),10)^2+MOD(ROUND(I10/100,0),10)^2)*$B$1</f>
+        <v>6.7208555140770594</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="7"/>
+        <v>1.930658707503059</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
+        <v>5.4409462576979903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -2119,42 +2985,50 @@
         <v>87.950090000000003</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1103053983720685</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.81117600817731184</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.0512754573440706</v>
       </c>
       <c r="F11">
+        <f t="shared" si="5"/>
+        <v>8.0512754573440706</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="4"/>
-        <v>8.0512754573440706</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
         <v>16.102550914688141</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.153826372032213</v>
       </c>
       <c r="I11">
         <v>422</v>
       </c>
-      <c r="K11" s="2">
-        <f>2*SIN(RADIANS(B11/2))</f>
+      <c r="K11">
+        <f t="shared" si="0"/>
         <v>1.3886899966988293</v>
       </c>
-      <c r="L11" s="2">
-        <f t="shared" ref="L11:L12" si="5">SQRT(H11)*$B$1</f>
-        <v>7.5777579445241852</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="L11">
+        <f>SQRT(MOD(I11,10)^2+MOD(ROUND(I11/10,0),10)^2+MOD(ROUND(I11/100,0),10)^2)*$B$1</f>
+        <v>7.5535894994101973</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="7"/>
+        <v>1.4206218052456809</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="6"/>
+        <v>5.4393633693383432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -2162,39 +3036,50 @@
         <v>94.874110000000002</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0467056204136818</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.91274799507002813</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.0594217005503204</v>
       </c>
       <c r="F12">
+        <f t="shared" si="5"/>
+        <v>9.0594217005503204</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="4"/>
-        <v>9.0594217005503204</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
         <v>18.118843401100641</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.178265101650961</v>
       </c>
-      <c r="I12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="2">
-        <f>2*SIN(RADIANS(B12/2))</f>
+      <c r="I12">
+        <v>333</v>
+      </c>
+      <c r="J12">
+        <v>511</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
         <v>1.4730693806637039</v>
       </c>
-      <c r="L12" s="2">
-        <f t="shared" si="5"/>
-        <v>8.0381965944128364</v>
+      <c r="L12">
+        <f>SQRT(MOD(I12,10)^2+MOD(ROUND(I12/10,0),10)^2+MOD(ROUND(I12/100,0),10)^2)*$B$1</f>
+        <v>8.0117915359986753</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="7"/>
+        <v>1.1737758024140958</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="6"/>
+        <v>5.4388419453732011</v>
       </c>
     </row>
   </sheetData>
@@ -2205,15 +3090,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FFA3BA-6C02-46CE-8285-753B249673DA}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2224,8 +3119,21 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" cm="1">
+        <f t="array" ref="F1:G1">LINEST(L6:L15,K6:K15,FALSE)</f>
+        <v>5.6441322020334539</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2236,8 +3144,21 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2:G2">LINEST(O6:O15,N6:N15)</f>
+        <v>2.8616849382423899E-4</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5.6432761582222852</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2247,8 +3168,14 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2267,24 +3194,36 @@
       <c r="F5" t="s">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>27.344349999999999</v>
       </c>
       <c r="C6">
         <f>$B$1/(2*SIN(RADIANS(B6/2)))</f>
-        <v>88.343764847304271</v>
+        <v>3.2616113608692321</v>
       </c>
       <c r="D6">
         <f>1/C6^2</f>
-        <v>1.2812922334611915E-4</v>
+        <v>9.4001671827345992E-2</v>
       </c>
       <c r="E6">
         <f>($C$6/C6)^2</f>
@@ -2294,8 +3233,491 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <f>E6*F6</f>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>111</v>
+      </c>
+      <c r="K6">
+        <f>2*SIN(RADIANS(B6/2))</f>
+        <v>0.47273259423191538</v>
+      </c>
+      <c r="L6">
+        <f>SQRT(MOD(I6,10)^2+MOD(ROUND(I6/10,0),10)^2+MOD(ROUND(I6/100,0),10)^2)*$B$1</f>
+        <v>2.6705971786662248</v>
+      </c>
+      <c r="N6">
+        <f>(COS(RADIANS(B6/2))^2)/SIN(RADIANS(B6/2))+(COS(RADIANS(B6/2))^2)/RADIANS(B6/2)</f>
+        <v>7.9509108741930987</v>
+      </c>
+      <c r="O6">
+        <f>L6/K6</f>
+        <v>5.6492765915693779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>31.724930000000001</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C15" si="0">$B$1/(2*SIN(RADIANS(B7/2)))</f>
+        <v>2.8205374394220319</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D15" si="1">1/C7^2</f>
+        <v>0.12570028497377095</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E15" si="2">($C$6/C7)^2</f>
+        <v>1.3372132913193944</v>
+      </c>
+      <c r="F7">
+        <f>$E7*F$6</f>
+        <v>1.3372132913193944</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:I15" si="3">$E7*G$6</f>
+        <v>2.6744265826387887</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>4.0116398739581829</v>
+      </c>
+      <c r="I7">
+        <v>200</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K15" si="4">2*SIN(RADIANS(B7/2))</f>
+        <v>0.5466582284814312</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:L15" si="5">SQRT(MOD(I7,10)^2+MOD(ROUND(I7/10,0),10)^2+MOD(ROUND(I7/100,0),10)^2)*$B$1</f>
+        <v>3.0837400000000001</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N15" si="6">(COS(RADIANS(B7/2))^2)/SIN(RADIANS(B7/2))+(COS(RADIANS(B7/2))^2)/RADIANS(B7/2)</f>
+        <v>6.7274481702957782</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7:O15" si="7">L7/K7</f>
+        <v>5.6410748788440639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45.458860000000001</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.9952774274080334</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.25118483810745112</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>2.6721316038804646</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F15" si="8">$E8*F$6</f>
+        <v>2.6721316038804646</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>5.3442632077609291</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>8.0163948116413941</v>
+      </c>
+      <c r="I8">
+        <v>220</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>0.77275970690600526</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>4.3610669308324086</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>4.3461968652103167</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>5.643496797074679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>53.865940000000002</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.7020393738414528</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.345192057823619</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>3.6721906229246377</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="8"/>
+        <v>3.6721906229246377</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>7.3443812458492754</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>11.016571868773912</v>
+      </c>
+      <c r="I9">
+        <v>311</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>0.90589561187415124</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>5.1138042655052809</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>3.4457091235582427</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="7"/>
+        <v>5.6450259814435446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>56.469529999999999</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.6295894273990574</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.37656816608252391</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>4.0059730722041964</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="8"/>
+        <v>4.0059730722041964</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>8.0119461444083928</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>12.01791921661259</v>
+      </c>
+      <c r="I10">
+        <v>222</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>0.94617084160943299</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>5.3411943573324496</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>3.2157921992574217</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="7"/>
+        <v>5.6450633674644832</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>66.281850000000006</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.4101604911156589</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.50287832196010984</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>5.3496742364726515</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="8"/>
+        <v>5.3496742364726515</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>10.699348472945303</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>16.049022709417955</v>
+      </c>
+      <c r="I11">
+        <v>400</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>1.0934003680532407</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>6.1674800000000003</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>2.4945873165238091</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="7"/>
+        <v>5.6406419644626355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>73.083799999999997</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1.2947958133928854</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.59648211607425883</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>6.3454415701225475</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="8"/>
+        <v>6.3454415701225475</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>12.690883140245095</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>19.036324710367644</v>
+      </c>
+      <c r="I12">
+        <v>331</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>1.1908209650135344</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>6.7208555140770594</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>2.0961918109261548</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>5.6438841030991362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>75.280730000000005</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1.2623726590439366</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.62751605294981971</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>6.6755839630425529</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="8"/>
+        <v>6.6755839630425529</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>13.351167926085106</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>20.026751889127659</v>
+      </c>
+      <c r="I13">
+        <v>420</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>1.2214063643993542</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>6.8954522649352024</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>1.9812298497548038</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="7"/>
+        <v>5.6455021571188135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>83.992159999999998</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1.1522318336253772</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.75321725541665652</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>8.0128070147528838</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="8"/>
+        <v>8.0128070147528838</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>16.025614029505768</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>24.038421044258651</v>
+      </c>
+      <c r="I14">
+        <v>422</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>1.3381595222453342</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>7.5535894994101973</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>1.5790642171706377</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="7"/>
+        <v>5.6447601155472293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>90.429060000000007</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1.0862073191968387</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.84756799751178413</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>9.0165204621947854</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="8"/>
+        <v>9.0165204621947854</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>18.033040924389571</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>27.049561386584358</v>
+      </c>
+      <c r="I15">
+        <v>333</v>
+      </c>
+      <c r="J15">
+        <v>511</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>1.419498812749749</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>8.0117915359986753</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>1.3280531087624405</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>5.6440987932063296</v>
       </c>
     </row>
   </sheetData>
@@ -2306,15 +3728,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448A0FD5-F0FF-44B8-89E4-272E9E07103D}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2325,8 +3759,21 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" cm="1">
+        <f t="array" ref="F1:G1">LINEST(M6:M15,L6:L15,FALSE)</f>
+        <v>6.2892902380040834</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2337,8 +3784,21 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2:G2">LINEST(P6:P15,O6:O15)</f>
+        <v>-1.9961161594213572E-3</v>
+      </c>
+      <c r="G2" s="3">
+        <v>6.2937773188618191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2348,8 +3808,14 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2368,24 +3834,36 @@
       <c r="F5" t="s">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>28.063130000000001</v>
       </c>
       <c r="C6">
         <f>$B$1/(2*SIN(RADIANS(B6/2)))</f>
-        <v>88.343764847304271</v>
+        <v>3.1796849905897551</v>
       </c>
       <c r="D6">
         <f>1/C6^2</f>
-        <v>1.2812922334611915E-4</v>
+        <v>9.8908087948283291E-2</v>
       </c>
       <c r="E6">
         <f>($C$6/C6)^2</f>
@@ -2395,8 +3873,527 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <f>E6*F6</f>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>200</v>
+      </c>
+      <c r="L6">
+        <f>2*SIN(RADIANS(B6/2))</f>
+        <v>0.48491281512575884</v>
+      </c>
+      <c r="M6">
+        <f>SQRT(MOD(J6,10)^2+MOD(ROUND(J6/10,0),10)^2+MOD(ROUND(J6/100,0),10)^2)*$B$1</f>
+        <v>3.0837400000000001</v>
+      </c>
+      <c r="O6">
+        <f>(COS(RADIANS(B6/2))^2)/SIN(RADIANS(B6/2))+(COS(RADIANS(B6/2))^2)/RADIANS(B6/2)</f>
+        <v>7.725305411268609</v>
+      </c>
+      <c r="P6">
+        <f>M6/L6</f>
+        <v>6.3593699811795101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>28.46632</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C15" si="0">$B$1/(2*SIN(RADIANS(B7/2)))</f>
+        <v>3.1355593525039396</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D15" si="1">1/C7^2</f>
+        <v>0.10171147402279493</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E15" si="2">($C$6/C7)^2</f>
+        <v>1.0283433451466322</v>
+      </c>
+      <c r="F7">
+        <f>$E7*F$6</f>
+        <v>1.0283433451466322</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:I15" si="3">$E7*G$6</f>
+        <v>2.0566866902932643</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>3.0850300354398965</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>4.1133733805865287</v>
+      </c>
+      <c r="J7">
+        <v>200</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:L15" si="4">2*SIN(RADIANS(B7/2))</f>
+        <v>0.49173682480885611</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M15" si="5">SQRT(MOD(J7,10)^2+MOD(ROUND(J7/10,0),10)^2+MOD(ROUND(J7/100,0),10)^2)*$B$1</f>
+        <v>3.0837400000000001</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7:O15" si="6">(COS(RADIANS(B7/2))^2)/SIN(RADIANS(B7/2))+(COS(RADIANS(B7/2))^2)/RADIANS(B7/2)</f>
+        <v>7.6035140176185534</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7:P15" si="7">M7/L7</f>
+        <v>6.2711187050078792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>28.775189999999998</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>3.1026016431420742</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.1038838325870482</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>1.0503067518741909</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F15" si="8">$E8*F$6</f>
+        <v>1.0503067518741909</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>2.1006135037483817</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>3.1509202556225726</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>4.2012270074967635</v>
+      </c>
+      <c r="J8">
+        <v>200</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>0.49696035048782922</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>3.0837400000000001</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
+        <v>7.5124129162108471</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="7"/>
+        <v>6.2052032862841484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>40.631999999999998</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2.2204506016533969</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.20282326437100426</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>2.0506236504850417</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="8"/>
+        <v>2.0506236504850417</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>4.1012473009700834</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>6.1518709514551251</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>8.2024946019401668</v>
+      </c>
+      <c r="J9">
+        <v>220</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>0.69439509208261119</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>4.3610669308324086</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
+        <v>5.0132687435745105</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="7"/>
+        <v>6.2803827108754664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>50.29054</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.8143284692355963</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.30378628954698345</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>3.0713998809260792</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="8"/>
+        <v>3.0713998809260792</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>6.1427997618521584</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>9.2141996427782367</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>12.285599523704317</v>
+      </c>
+      <c r="J10">
+        <v>222</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>0.84982957945294935</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>5.3411943573324496</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
+        <v>3.7956835446498944</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="7"/>
+        <v>6.2850181806694385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>58.748980000000003</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.5716822619717945</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.40482795674053479</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>4.0929712133572913</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="8"/>
+        <v>4.0929712133572913</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>8.1859424267145826</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>12.278913640071874</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>16.371884853429165</v>
+      </c>
+      <c r="J11">
+        <v>400</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>0.98103162280753065</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>6.1674800000000003</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="6"/>
+        <v>3.0293745501596998</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="7"/>
+        <v>6.286729047887178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>66.487200000000001</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1.4063029265407478</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.50564095036526868</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>5.1122305653068167</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="8"/>
+        <v>5.1122305653068167</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>10.224461130613633</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>15.33669169592045</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>20.448922261227267</v>
+      </c>
+      <c r="J12">
+        <v>420</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>1.0963996240786633</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>6.8954522649352024</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="6"/>
+        <v>2.4815102848567037</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="7"/>
+        <v>6.2891778814040116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>73.791520000000006</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1.2841189578226344</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.60644229796161131</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>6.1313721712900318</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="8"/>
+        <v>6.1313721712900318</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>12.262744342580064</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>18.394116513870095</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>24.525488685160127</v>
+      </c>
+      <c r="J13">
+        <v>422</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>1.2007220908991258</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>7.5535894994101973</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="6"/>
+        <v>2.0584924499920882</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="7"/>
+        <v>6.2908724313999347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>87.763909999999996</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1.1121796884250821</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.80844425891578453</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>8.1736921184696349</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="8"/>
+        <v>8.1736921184696349</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>16.34738423693927</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>24.521076355408905</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>32.69476847387854</v>
+      </c>
+      <c r="J14">
+        <v>440</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>1.3863497203256669</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>8.7221338616648172</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="6"/>
+        <v>1.4277744416495626</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="7"/>
+        <v>6.2914383966665381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>94.582539999999995</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1.0491605733326306</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.90848147606679863</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>9.1851080625663517</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="8"/>
+        <v>9.1851080625663517</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>18.370216125132703</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>27.555324187699057</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>36.740432250265407</v>
+      </c>
+      <c r="J15">
+        <v>600</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>1.4696225145997348</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>9.25122</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="6"/>
+        <v>1.1834593350562232</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="7"/>
+        <v>6.294963439995783</v>
       </c>
     </row>
   </sheetData>
@@ -2407,15 +4404,26 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26FD086-5D7A-4A3E-816B-011E2CEE4D20}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2426,8 +4434,21 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" cm="1">
+        <f t="array" ref="F1:G1">LINEST(J6:J19,I6:I19,FALSE)</f>
+        <v>4.1207055077244137</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2438,8 +4459,21 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2:G2">LINEST(M6:M19,L6:L19)</f>
+        <v>-2.2881923360731087E-3</v>
+      </c>
+      <c r="G2" s="3">
+        <v>4.125924991067345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2449,8 +4483,14 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2470,23 +4510,35 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>21.662690000000001</v>
       </c>
       <c r="C6">
         <f>$B$1/(2*SIN(RADIANS(B6/2)))</f>
-        <v>88.343764847304271</v>
+        <v>4.1024928541219463</v>
       </c>
       <c r="D6">
         <f>1/C6^2</f>
-        <v>1.2812922334611915E-4</v>
+        <v>5.9416126218965373E-2</v>
       </c>
       <c r="E6">
         <f>($C$6/C6)^2</f>
@@ -2496,8 +4548,582 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <f>E6*F6</f>
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <f>2*SIN(RADIANS(B6/2))</f>
+        <v>0.37583733959483168</v>
+      </c>
+      <c r="J6">
+        <f>SQRT(MOD(G6,10)^2+MOD(ROUND(G6/10,0),10)^2+MOD(ROUND(G6/100,0),10)^2)*$B$1</f>
+        <v>1.5418700000000001</v>
+      </c>
+      <c r="L6">
+        <f>(COS(RADIANS(B6/2))^2)/SIN(RADIANS(B6/2))+(COS(RADIANS(B6/2))^2)/RADIANS(B6/2)</f>
+        <v>10.236543046078348</v>
+      </c>
+      <c r="M6">
+        <f>J6/I6</f>
+        <v>4.1024928541219463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>30.76388</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C19" si="0">$B$1/(2*SIN(RADIANS(B7/2)))</f>
+        <v>2.9064224757795709</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D19" si="1">1/C7^2</f>
+        <v>0.1183811387648195</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E19" si="2">($C$6/C7)^2</f>
+        <v>1.9924075549548828</v>
+      </c>
+      <c r="F7">
+        <f>$E7*F$6</f>
+        <v>1.9924075549548828</v>
+      </c>
+      <c r="G7">
+        <v>110</v>
+      </c>
+      <c r="I7">
+        <f>2*SIN(RADIANS(B7/2))</f>
+        <v>0.53050443039477058</v>
+      </c>
+      <c r="J7">
+        <f>SQRT(MOD(G7,10)^2+MOD(ROUND(G7/10,0),10)^2+MOD(ROUND(G7/100,0),10)^2)*$B$1</f>
+        <v>2.1805334654162043</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:L19" si="3">(COS(RADIANS(B7/2))^2)/SIN(RADIANS(B7/2))+(COS(RADIANS(B7/2))^2)/RADIANS(B7/2)</f>
+        <v>6.9675406071940884</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M19" si="4">J7/I7</f>
+        <v>4.1103020832334574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>37.885190000000001</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2.3748795769721363</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.17730329823005597</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>2.9840938733811551</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F18" si="5">$E8*F$6</f>
+        <v>2.9840938733811551</v>
+      </c>
+      <c r="G8">
+        <v>111</v>
+      </c>
+      <c r="I8">
+        <f>2*SIN(RADIANS(B8/2))</f>
+        <v>0.64924134046654036</v>
+      </c>
+      <c r="J8">
+        <f>SQRT(MOD(G8,10)^2+MOD(ROUND(G8/10,0),10)^2+MOD(ROUND(G8/100,0),10)^2)*$B$1</f>
+        <v>2.6705971786662248</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>5.4618646106289663</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>4.1134120891734218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44.008090000000003</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2.0576261274648608</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.23619302492789035</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>3.9752343338145559</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="5"/>
+        <v>3.9752343338145559</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+      <c r="I9">
+        <f>2*SIN(RADIANS(B9/2))</f>
+        <v>0.74934410066987811</v>
+      </c>
+      <c r="J9">
+        <f>SQRT(MOD(G9,10)^2+MOD(ROUND(G9/10,0),10)^2+MOD(ROUND(G9/100,0),10)^2)*$B$1</f>
+        <v>3.0837400000000001</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>4.5326738736349395</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>4.1152522549297217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>49.505870000000002</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.8412311426340422</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.2949737545395148</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>4.964540324497972</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="5"/>
+        <v>4.964540324497972</v>
+      </c>
+      <c r="G10">
+        <v>210</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:I19" si="6">2*SIN(RADIANS(B10/2))</f>
+        <v>0.83741251399551075</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10:J19" si="7">SQRT(MOD(G10,10)^2+MOD(ROUND(G10/10,0),10)^2+MOD(ROUND(G10/100,0),10)^2)*$B$1</f>
+        <v>3.4477261324676012</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>3.8785068213688225</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>4.1171179972193297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>54.588380000000001</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.6812106076480871</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.35379831232842229</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>5.9545839630233477</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="5"/>
+        <v>5.9545839630233477</v>
+      </c>
+      <c r="G11">
+        <v>211</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="6"/>
+        <v>0.91711888622745719</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="7"/>
+        <v>3.7767947497050987</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>3.3799646038131375</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>4.1181081388922625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>63.919759999999997</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1.4564484012950747</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.47142194319595021</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>7.9342423209925528</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="5"/>
+        <v>7.9342423209925528</v>
+      </c>
+      <c r="G12">
+        <v>220</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="6"/>
+        <v>1.0586506179202562</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="7"/>
+        <v>4.3610669308324086</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>2.6503132781417023</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>4.1194581640162138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>68.29571</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1.3734067777396073</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.53015349328138106</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>8.9227205982364826</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>8.9227205982364826</v>
+      </c>
+      <c r="G13">
+        <v>221</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="6"/>
+        <v>1.1226608350787772</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="7"/>
+        <v>4.62561</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>2.3693407462719298</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>4.1202203332188212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>72.532650000000004</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1.3032690624395049</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.5887512309818812</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>9.908946753145182</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>9.908946753145182</v>
+      </c>
+      <c r="G14">
+        <v>310</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="6"/>
+        <v>1.1830788011754638</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="7"/>
+        <v>4.8758210558838195</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>2.1260033885467653</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>4.1212986413410349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>76.683520000000001</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1.242740295712047</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.647499204175086</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>10.897701438644232</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>10.897701438644232</v>
+      </c>
+      <c r="G15">
+        <v>311</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="6"/>
+        <v>1.2407017019727056</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="7"/>
+        <v>5.1138042655052809</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>1.9109080357722874</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>4.1217032727321756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <v>80.776309999999995</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1.1897834490497625</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.70642189855682791</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>11.889396759954726</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>11.889396759954726</v>
+      </c>
+      <c r="G16">
+        <v>222</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="6"/>
+        <v>1.2959249023269204</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="7"/>
+        <v>5.3411943573324496</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>1.7183464862107443</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>4.1215307675174504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <v>84.789079999999998</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1.1434268688454912</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.76486222661818914</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>12.872973640177307</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>12.872973640177307</v>
+      </c>
+      <c r="G17">
+        <v>320</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>1.3484640268745947</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="7"/>
+        <v>5.5592913450996608</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>1.5460545039344527</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>4.1226842053656556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <v>88.794870000000003</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1.1019160233780432</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.82357471243934932</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>13.861131057320055</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>13.861131057320055</v>
+      </c>
+      <c r="G18">
+        <v>321</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="6"/>
+        <v>1.3992627090340608</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>5.7691492749451374</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>1.3885238944391478</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>4.1229922284770222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>96.804389999999998</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1.0309049853090044</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0.94094171007285354</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>15.836470163086954</v>
+      </c>
+      <c r="F19">
+        <f>$E19*F$6</f>
+        <v>15.836470163086954</v>
+      </c>
+      <c r="G19">
+        <v>400</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="6"/>
+        <v>1.495647049895523</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="7"/>
+        <v>6.1674800000000003</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>1.1111370764127737</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>4.1236199412360177</v>
       </c>
     </row>
   </sheetData>

--- a/2024_04_19_X線/data/data.xlsx
+++ b/2024_04_19_X線/data/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiang\Documents\latex\TUS_B3_reports\2024_04_19_X線\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\codes\TUS\B3\レポート\2024_04_19_X線\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30489125-BBDF-4369-899C-EAD8D73BB1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558DB658-A69E-48CE-90EE-0A6868E7E089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="799" activeTab="6" xr2:uid="{EB3D8C0B-2E54-48BC-9994-5F75A5673E97}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="799" activeTab="4" xr2:uid="{EB3D8C0B-2E54-48BC-9994-5F75A5673E97}"/>
   </bookViews>
   <sheets>
     <sheet name="結晶構造因子" sheetId="2" r:id="rId1"/>
@@ -2172,7 +2172,7 @@
         <v>1.6544267810150486</v>
       </c>
       <c r="N8">
-        <f t="shared" ref="N7:N9" si="5">K8/J8</f>
+        <f t="shared" ref="N8:N9" si="5">K8/J8</f>
         <v>2.8719543556549083</v>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:XFD1048576"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2761,7 +2761,7 @@
         <v>0.48941014141337436</v>
       </c>
       <c r="L6">
-        <f>SQRT(MOD(I6,10)^2+MOD(ROUND(I6/10,0),10)^2+MOD(ROUND(I6/100,0),10)^2)*$B$1</f>
+        <f t="shared" ref="L6:L12" si="1">SQRT(MOD(I6,10)^2+MOD(ROUND(I6/10,0),10)^2+MOD(ROUND(I6/100,0),10)^2)*$B$1</f>
         <v>2.6705971786662248</v>
       </c>
       <c r="N6">
@@ -2781,15 +2781,15 @@
         <v>47.193269999999998</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C12" si="1">$B$1/(2*SIN(RADIANS(B7/2)))</f>
+        <f t="shared" ref="C7:C12" si="2">$B$1/(2*SIN(RADIANS(B7/2)))</f>
         <v>1.9259161085194485</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D12" si="2">1/C7^2</f>
+        <f t="shared" ref="D7:D12" si="3">1/C7^2</f>
         <v>0.26960334031476496</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E12" si="3">($C$6/C7)^2</f>
+        <f t="shared" ref="E7:E12" si="4">($C$6/C7)^2</f>
         <v>2.6759306675891903</v>
       </c>
       <c r="F7">
@@ -2797,11 +2797,11 @@
         <v>2.6759306675891903</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:H12" si="4">$E7*G$6</f>
+        <f t="shared" ref="G7:H12" si="5">$E7*G$6</f>
         <v>5.3518613351783806</v>
       </c>
       <c r="H7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.0277920027675709</v>
       </c>
       <c r="I7">
@@ -2812,7 +2812,7 @@
         <v>0.80059042716316209</v>
       </c>
       <c r="L7">
-        <f>SQRT(MOD(I7,10)^2+MOD(ROUND(I7/10,0),10)^2+MOD(ROUND(I7/100,0),10)^2)*$B$1</f>
+        <f t="shared" si="1"/>
         <v>4.3610669308324086</v>
       </c>
       <c r="N7">
@@ -2832,27 +2832,27 @@
         <v>56.030740000000002</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6413055319229761</v>
       </c>
       <c r="D8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.37121125334572541</v>
       </c>
       <c r="E8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6844334933770346</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:H12" si="5">$E8*F$6</f>
+        <f t="shared" ref="F8:H12" si="6">$E8*F$6</f>
         <v>3.6844334933770346</v>
       </c>
       <c r="G8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.3688669867540693</v>
       </c>
       <c r="H8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.053300480131103</v>
       </c>
       <c r="I8">
@@ -2863,7 +2863,7 @@
         <v>0.93941680571412201</v>
       </c>
       <c r="L8">
-        <f>SQRT(MOD(I8,10)^2+MOD(ROUND(I8/10,0),10)^2+MOD(ROUND(I8/100,0),10)^2)*$B$1</f>
+        <f t="shared" si="1"/>
         <v>5.1138042655052809</v>
       </c>
       <c r="N8">
@@ -2871,7 +2871,7 @@
         <v>3.2532128512359257</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8:O12" si="6">L8/K8</f>
+        <f t="shared" ref="O8:O12" si="7">L8/K8</f>
         <v>5.4435946157231987</v>
       </c>
     </row>
@@ -2883,27 +2883,27 @@
         <v>69.03819</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3604394483766102</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.54030821014242369</v>
       </c>
       <c r="E9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3627944957296014</v>
       </c>
       <c r="F9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.3627944957296014</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.725588991459203</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.088383487188803</v>
       </c>
       <c r="I9">
@@ -2914,15 +2914,15 @@
         <v>1.1333617250219317</v>
       </c>
       <c r="L9">
-        <f>SQRT(MOD(I9,10)^2+MOD(ROUND(I9/10,0),10)^2+MOD(ROUND(I9/100,0),10)^2)*$B$1</f>
+        <f t="shared" si="1"/>
         <v>6.1674800000000003</v>
       </c>
       <c r="N9">
-        <f t="shared" ref="N8:N12" si="7">(COS(RADIANS(B9/2))^2)/SIN(RADIANS(B9/2))+(COS(RADIANS(B9/2))^2)/RADIANS(B9/2)</f>
+        <f t="shared" ref="N9:N12" si="8">(COS(RADIANS(B9/2))^2)/SIN(RADIANS(B9/2))+(COS(RADIANS(B9/2))^2)/RADIANS(B9/2)</f>
         <v>2.3247932700032479</v>
       </c>
       <c r="O9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.441757793506441</v>
       </c>
     </row>
@@ -2934,27 +2934,27 @@
         <v>76.284829999999999</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.248238678660071</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.64180741227489857</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.3702183184649659</v>
       </c>
       <c r="F10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.3702183184649659</v>
       </c>
       <c r="G10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.740436636929932</v>
       </c>
       <c r="H10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.110654955394899</v>
       </c>
       <c r="I10">
@@ -2965,15 +2965,15 @@
         <v>1.2352365187522705</v>
       </c>
       <c r="L10">
-        <f>SQRT(MOD(I10,10)^2+MOD(ROUND(I10/10,0),10)^2+MOD(ROUND(I10/100,0),10)^2)*$B$1</f>
+        <f t="shared" si="1"/>
         <v>6.7208555140770594</v>
       </c>
       <c r="N10">
+        <f t="shared" si="8"/>
+        <v>1.930658707503059</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="7"/>
-        <v>1.930658707503059</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="6"/>
         <v>5.4409462576979903</v>
       </c>
     </row>
@@ -2985,27 +2985,27 @@
         <v>87.950090000000003</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1103053983720685</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.81117600817731184</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.0512754573440706</v>
       </c>
       <c r="F11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.0512754573440706</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.102550914688141</v>
       </c>
       <c r="H11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.153826372032213</v>
       </c>
       <c r="I11">
@@ -3016,15 +3016,15 @@
         <v>1.3886899966988293</v>
       </c>
       <c r="L11">
-        <f>SQRT(MOD(I11,10)^2+MOD(ROUND(I11/10,0),10)^2+MOD(ROUND(I11/100,0),10)^2)*$B$1</f>
+        <f t="shared" si="1"/>
         <v>7.5535894994101973</v>
       </c>
       <c r="N11">
+        <f t="shared" si="8"/>
+        <v>1.4206218052456809</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="7"/>
-        <v>1.4206218052456809</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="6"/>
         <v>5.4393633693383432</v>
       </c>
     </row>
@@ -3036,27 +3036,27 @@
         <v>94.874110000000002</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0467056204136818</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.91274799507002813</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0594217005503204</v>
       </c>
       <c r="F12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.0594217005503204</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.118843401100641</v>
       </c>
       <c r="H12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.178265101650961</v>
       </c>
       <c r="I12">
@@ -3070,15 +3070,15 @@
         <v>1.4730693806637039</v>
       </c>
       <c r="L12">
-        <f>SQRT(MOD(I12,10)^2+MOD(ROUND(I12/10,0),10)^2+MOD(ROUND(I12/100,0),10)^2)*$B$1</f>
+        <f t="shared" si="1"/>
         <v>8.0117915359986753</v>
       </c>
       <c r="N12">
+        <f t="shared" si="8"/>
+        <v>1.1737758024140958</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="7"/>
-        <v>1.1737758024140958</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="6"/>
         <v>5.4388419453732011</v>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FFA3BA-6C02-46CE-8285-753B249673DA}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
@@ -3282,7 +3282,7 @@
         <v>1.3372132913193944</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:I15" si="3">$E7*G$6</f>
+        <f t="shared" ref="G7:H15" si="3">$E7*G$6</f>
         <v>2.6744265826387887</v>
       </c>
       <c r="H7">
@@ -3731,7 +3731,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="A1:XFD1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3766,8 +3766,8 @@
         <v>21</v>
       </c>
       <c r="F1" s="3" cm="1">
-        <f t="array" ref="F1:G1">LINEST(M6:M15,L6:L15,FALSE)</f>
-        <v>6.2892902380040834</v>
+        <f t="array" ref="F1:G1">LINEST(M6:M13,L6:L13,FALSE)</f>
+        <v>6.2897597193291261</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -3791,11 +3791,11 @@
         <v>21</v>
       </c>
       <c r="F2" cm="1">
-        <f t="array" ref="F2:G2">LINEST(P6:P15,O6:O15)</f>
-        <v>-1.9961161594213572E-3</v>
+        <f t="array" ref="F2:G2">LINEST(P6:P13,O6:O13)</f>
+        <v>-3.5098001373616299E-3</v>
       </c>
       <c r="G2" s="3">
-        <v>6.2937773188618191</v>
+        <v>6.2978796475629686</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3852,18 +3852,18 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>28.063130000000001</v>
+        <v>28.46632</v>
       </c>
       <c r="C6">
-        <f>$B$1/(2*SIN(RADIANS(B6/2)))</f>
-        <v>3.1796849905897551</v>
+        <f t="shared" ref="C6:C13" si="0">$B$1/(2*SIN(RADIANS(B6/2)))</f>
+        <v>3.1355593525039396</v>
       </c>
       <c r="D6">
-        <f>1/C6^2</f>
-        <v>9.8908087948283291E-2</v>
+        <f t="shared" ref="D6:D13" si="1">1/C6^2</f>
+        <v>0.10171147402279493</v>
       </c>
       <c r="E6">
         <f>($C$6/C6)^2</f>
@@ -3885,515 +3885,515 @@
         <v>200</v>
       </c>
       <c r="L6">
-        <f>2*SIN(RADIANS(B6/2))</f>
-        <v>0.48491281512575884</v>
+        <f t="shared" ref="L6:L13" si="2">2*SIN(RADIANS(B6/2))</f>
+        <v>0.49173682480885611</v>
       </c>
       <c r="M6">
         <f>SQRT(MOD(J6,10)^2+MOD(ROUND(J6/10,0),10)^2+MOD(ROUND(J6/100,0),10)^2)*$B$1</f>
         <v>3.0837400000000001</v>
       </c>
       <c r="O6">
-        <f>(COS(RADIANS(B6/2))^2)/SIN(RADIANS(B6/2))+(COS(RADIANS(B6/2))^2)/RADIANS(B6/2)</f>
-        <v>7.725305411268609</v>
+        <f t="shared" ref="O6:O13" si="3">(COS(RADIANS(B6/2))^2)/SIN(RADIANS(B6/2))+(COS(RADIANS(B6/2))^2)/RADIANS(B6/2)</f>
+        <v>7.6035140176185534</v>
       </c>
       <c r="P6">
-        <f>M6/L6</f>
-        <v>6.3593699811795101</v>
+        <f t="shared" ref="P6:P13" si="4">M6/L6</f>
+        <v>6.2711187050078792</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>28.46632</v>
+        <v>40.631999999999998</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C15" si="0">$B$1/(2*SIN(RADIANS(B7/2)))</f>
-        <v>3.1355593525039396</v>
+        <f t="shared" si="0"/>
+        <v>2.2204506016533969</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D15" si="1">1/C7^2</f>
-        <v>0.10171147402279493</v>
+        <f t="shared" si="1"/>
+        <v>0.20282326437100426</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E15" si="2">($C$6/C7)^2</f>
-        <v>1.0283433451466322</v>
+        <f>($C$6/C7)^2</f>
+        <v>1.9941040705549975</v>
       </c>
       <c r="F7">
-        <f>$E7*F$6</f>
-        <v>1.0283433451466322</v>
+        <f t="shared" ref="F7:I15" si="5">$E7*F$6</f>
+        <v>1.9941040705549975</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:I15" si="3">$E7*G$6</f>
-        <v>2.0566866902932643</v>
+        <f t="shared" si="5"/>
+        <v>3.988208141109995</v>
       </c>
       <c r="H7">
+        <f t="shared" si="5"/>
+        <v>5.9823122116649925</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>7.97641628221999</v>
+      </c>
+      <c r="J7">
+        <v>220</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.69439509208261119</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M13" si="6">SQRT(MOD(J7,10)^2+MOD(ROUND(J7/10,0),10)^2+MOD(ROUND(J7/100,0),10)^2)*$B$1</f>
+        <v>4.3610669308324086</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="3"/>
-        <v>3.0850300354398965</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
-        <v>4.1133733805865287</v>
-      </c>
-      <c r="J7">
-        <v>200</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ref="L7:L15" si="4">2*SIN(RADIANS(B7/2))</f>
-        <v>0.49173682480885611</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ref="M7:M15" si="5">SQRT(MOD(J7,10)^2+MOD(ROUND(J7/10,0),10)^2+MOD(ROUND(J7/100,0),10)^2)*$B$1</f>
-        <v>3.0837400000000001</v>
-      </c>
-      <c r="O7">
-        <f t="shared" ref="O7:O15" si="6">(COS(RADIANS(B7/2))^2)/SIN(RADIANS(B7/2))+(COS(RADIANS(B7/2))^2)/RADIANS(B7/2)</f>
-        <v>7.6035140176185534</v>
+        <v>5.0132687435745105</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P15" si="7">M7/L7</f>
-        <v>6.2711187050078792</v>
+        <f t="shared" si="4"/>
+        <v>6.2803827108754664</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>28.775189999999998</v>
+        <v>50.29054</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>3.1026016431420742</v>
+        <v>1.8143284692355963</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>0.1038838325870482</v>
+        <v>0.30378628954698345</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
-        <v>1.0503067518741909</v>
+        <f>($C$6/C8)^2</f>
+        <v>2.9867455217382926</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F15" si="8">$E8*F$6</f>
-        <v>1.0503067518741909</v>
+        <f t="shared" si="5"/>
+        <v>2.9867455217382926</v>
       </c>
       <c r="G8">
+        <f t="shared" si="5"/>
+        <v>5.9734910434765851</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>8.9602365652148777</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="5"/>
+        <v>11.94698208695317</v>
+      </c>
+      <c r="J8">
+        <v>222</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.84982957945294935</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>5.3411943573324496</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="3"/>
-        <v>2.1006135037483817</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>3.1509202556225726</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>4.2012270074967635</v>
-      </c>
-      <c r="J8">
-        <v>200</v>
-      </c>
-      <c r="L8">
+        <v>3.7956835446498944</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="4"/>
-        <v>0.49696035048782922</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="5"/>
-        <v>3.0837400000000001</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="6"/>
-        <v>7.5124129162108471</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="7"/>
-        <v>6.2052032862841484</v>
+        <v>6.2850181806694385</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>40.631999999999998</v>
+        <v>58.748980000000003</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>2.2204506016533969</v>
+        <v>1.5716822619717945</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>0.20282326437100426</v>
+        <v>0.40482795674053479</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
-        <v>2.0506236504850417</v>
+        <f>($C$6/C9)^2</f>
+        <v>3.9801601601979275</v>
       </c>
       <c r="F9">
-        <f t="shared" si="8"/>
-        <v>2.0506236504850417</v>
+        <f t="shared" si="5"/>
+        <v>3.9801601601979275</v>
       </c>
       <c r="G9">
+        <f t="shared" si="5"/>
+        <v>7.960320320395855</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>11.940480480593783</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="5"/>
+        <v>15.92064064079171</v>
+      </c>
+      <c r="J9">
+        <v>400</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.98103162280753065</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="6"/>
+        <v>6.1674800000000003</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="3"/>
-        <v>4.1012473009700834</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>6.1518709514551251</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
-        <v>8.2024946019401668</v>
-      </c>
-      <c r="J9">
-        <v>220</v>
-      </c>
-      <c r="L9">
+        <v>3.0293745501596998</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="4"/>
-        <v>0.69439509208261119</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="5"/>
-        <v>4.3610669308324086</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="6"/>
-        <v>5.0132687435745105</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="7"/>
-        <v>6.2803827108754664</v>
+        <v>6.286729047887178</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>50.29054</v>
+        <v>66.487200000000001</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>1.8143284692355963</v>
+        <v>1.4063029265407478</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>0.30378628954698345</v>
+        <v>0.50564095036526868</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
-        <v>3.0713998809260792</v>
+        <f>($C$6/C10)^2</f>
+        <v>4.9713265413098586</v>
       </c>
       <c r="F10">
-        <f t="shared" si="8"/>
-        <v>3.0713998809260792</v>
+        <f t="shared" si="5"/>
+        <v>4.9713265413098586</v>
       </c>
       <c r="G10">
+        <f t="shared" si="5"/>
+        <v>9.9426530826197173</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>14.913979623929576</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="5"/>
+        <v>19.885306165239435</v>
+      </c>
+      <c r="J10">
+        <v>420</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>1.0963996240786633</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="6"/>
+        <v>6.8954522649352024</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="3"/>
-        <v>6.1427997618521584</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>9.2141996427782367</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
-        <v>12.285599523704317</v>
-      </c>
-      <c r="J10">
-        <v>222</v>
-      </c>
-      <c r="L10">
+        <v>2.4815102848567037</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="4"/>
-        <v>0.84982957945294935</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="5"/>
-        <v>5.3411943573324496</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="6"/>
-        <v>3.7956835446498944</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="7"/>
-        <v>6.2850181806694385</v>
+        <v>6.2891778814040116</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>58.748980000000003</v>
+        <v>73.791520000000006</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>1.5716822619717945</v>
+        <v>1.2841189578226344</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>0.40482795674053479</v>
+        <v>0.60644229796161131</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
-        <v>4.0929712133572913</v>
+        <f>($C$6/C11)^2</f>
+        <v>5.9623784217865072</v>
       </c>
       <c r="F11">
-        <f t="shared" si="8"/>
-        <v>4.0929712133572913</v>
+        <f t="shared" si="5"/>
+        <v>5.9623784217865072</v>
       </c>
       <c r="G11">
+        <f t="shared" si="5"/>
+        <v>11.924756843573014</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>17.887135265359522</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="5"/>
+        <v>23.849513687146029</v>
+      </c>
+      <c r="J11">
+        <v>422</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>1.2007220908991258</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="6"/>
+        <v>7.5535894994101973</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="3"/>
-        <v>8.1859424267145826</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
-        <v>12.278913640071874</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
-        <v>16.371884853429165</v>
-      </c>
-      <c r="J11">
-        <v>400</v>
-      </c>
-      <c r="L11">
+        <v>2.0584924499920882</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="4"/>
-        <v>0.98103162280753065</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="5"/>
-        <v>6.1674800000000003</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="6"/>
-        <v>3.0293745501596998</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="7"/>
-        <v>6.286729047887178</v>
+        <v>6.2908724313999347</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>66.487200000000001</v>
+        <v>87.763909999999996</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>1.4063029265407478</v>
+        <v>1.1121796884250821</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>0.50564095036526868</v>
+        <v>0.80844425891578453</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
-        <v>5.1122305653068167</v>
+        <f>($C$6/C12)^2</f>
+        <v>7.9484076568844255</v>
       </c>
       <c r="F12">
-        <f t="shared" si="8"/>
-        <v>5.1122305653068167</v>
+        <f t="shared" si="5"/>
+        <v>7.9484076568844255</v>
       </c>
       <c r="G12">
+        <f t="shared" si="5"/>
+        <v>15.896815313768851</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>23.845222970653275</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="5"/>
+        <v>31.793630627537702</v>
+      </c>
+      <c r="J12">
+        <v>440</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>1.3863497203256669</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="6"/>
+        <v>8.7221338616648172</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="3"/>
-        <v>10.224461130613633</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
-        <v>15.33669169592045</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
-        <v>20.448922261227267</v>
-      </c>
-      <c r="J12">
-        <v>420</v>
-      </c>
-      <c r="L12">
+        <v>1.4277744416495626</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="4"/>
-        <v>1.0963996240786633</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="5"/>
-        <v>6.8954522649352024</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="6"/>
-        <v>2.4815102848567037</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="7"/>
-        <v>6.2891778814040116</v>
+        <v>6.2914383966665381</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>73.791520000000006</v>
+        <v>94.582539999999995</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>1.2841189578226344</v>
+        <v>1.0491605733326306</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>0.60644229796161131</v>
+        <v>0.90848147606679863</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
-        <v>6.1313721712900318</v>
+        <f>($C$6/C13)^2</f>
+        <v>8.9319468112633551</v>
       </c>
       <c r="F13">
-        <f t="shared" si="8"/>
-        <v>6.1313721712900318</v>
+        <f t="shared" si="5"/>
+        <v>8.9319468112633551</v>
       </c>
       <c r="G13">
+        <f t="shared" si="5"/>
+        <v>17.86389362252671</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>26.795840433790065</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="5"/>
+        <v>35.72778724505342</v>
+      </c>
+      <c r="J13">
+        <v>600</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>1.4696225145997348</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="6"/>
+        <v>9.25122</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="3"/>
-        <v>12.262744342580064</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
-        <v>18.394116513870095</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
-        <v>24.525488685160127</v>
-      </c>
-      <c r="J13">
-        <v>422</v>
-      </c>
-      <c r="L13">
+        <v>1.1834593350562232</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="4"/>
-        <v>1.2007220908991258</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="5"/>
-        <v>7.5535894994101973</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="6"/>
-        <v>2.0584924499920882</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="7"/>
-        <v>6.2908724313999347</v>
+        <v>6.294963439995783</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>87.763909999999996</v>
+        <v>28.063130000000001</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>1.1121796884250821</v>
+        <f>$B$1/(2*SIN(RADIANS(B14/2)))</f>
+        <v>3.1796849905897551</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
-        <v>0.80844425891578453</v>
+        <f>1/C14^2</f>
+        <v>9.8908087948283291E-2</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
-        <v>8.1736921184696349</v>
+        <f>($C$6/C14)^2</f>
+        <v>0.97243785815272565</v>
       </c>
       <c r="F14">
-        <f t="shared" si="8"/>
-        <v>8.1736921184696349</v>
+        <f>$E14*F$6</f>
+        <v>0.97243785815272565</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
-        <v>16.34738423693927</v>
+        <f>$E14*G$6</f>
+        <v>1.9448757163054513</v>
       </c>
       <c r="H14">
-        <f t="shared" si="3"/>
-        <v>24.521076355408905</v>
+        <f t="shared" si="5"/>
+        <v>2.9173135744581771</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
-        <v>32.69476847387854</v>
+        <f t="shared" si="5"/>
+        <v>3.8897514326109026</v>
       </c>
       <c r="J14">
-        <v>440</v>
+        <v>200</v>
       </c>
       <c r="L14">
-        <f t="shared" si="4"/>
-        <v>1.3863497203256669</v>
+        <f>2*SIN(RADIANS(B14/2))</f>
+        <v>0.48491281512575884</v>
       </c>
       <c r="M14">
-        <f t="shared" si="5"/>
-        <v>8.7221338616648172</v>
+        <f>SQRT(MOD(J14,10)^2+MOD(ROUND(J14/10,0),10)^2+MOD(ROUND(J14/100,0),10)^2)*$B$1</f>
+        <v>3.0837400000000001</v>
       </c>
       <c r="O14">
-        <f t="shared" si="6"/>
-        <v>1.4277744416495626</v>
+        <f>(COS(RADIANS(B14/2))^2)/SIN(RADIANS(B14/2))+(COS(RADIANS(B14/2))^2)/RADIANS(B14/2)</f>
+        <v>7.725305411268609</v>
       </c>
       <c r="P14">
-        <f t="shared" si="7"/>
-        <v>6.2914383966665381</v>
+        <f>M14/L14</f>
+        <v>6.3593699811795101</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1">
-        <v>94.582539999999995</v>
+        <v>28.775189999999998</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>1.0491605733326306</v>
+        <f t="shared" ref="C15" si="7">$B$1/(2*SIN(RADIANS(B15/2)))</f>
+        <v>3.1026016431420742</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
-        <v>0.90848147606679863</v>
+        <f t="shared" ref="D15" si="8">1/C15^2</f>
+        <v>0.1038838325870482</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
-        <v>9.1851080625663517</v>
+        <f t="shared" ref="E15" si="9">($C$6/C15)^2</f>
+        <v>1.0213580481958844</v>
       </c>
       <c r="F15">
-        <f t="shared" si="8"/>
-        <v>9.1851080625663517</v>
+        <f>$E15*F$6</f>
+        <v>1.0213580481958844</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
-        <v>18.370216125132703</v>
+        <f>$E15*G$6</f>
+        <v>2.0427160963917688</v>
       </c>
       <c r="H15">
-        <f t="shared" si="3"/>
-        <v>27.555324187699057</v>
+        <f t="shared" si="5"/>
+        <v>3.0640741445876531</v>
       </c>
       <c r="I15">
-        <f t="shared" si="3"/>
-        <v>36.740432250265407</v>
+        <f t="shared" si="5"/>
+        <v>4.0854321927835375</v>
       </c>
       <c r="J15">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="L15">
-        <f t="shared" si="4"/>
-        <v>1.4696225145997348</v>
+        <f t="shared" ref="L15" si="10">2*SIN(RADIANS(B15/2))</f>
+        <v>0.49696035048782922</v>
       </c>
       <c r="M15">
-        <f t="shared" si="5"/>
-        <v>9.25122</v>
+        <f t="shared" ref="M15" si="11">SQRT(MOD(J15,10)^2+MOD(ROUND(J15/10,0),10)^2+MOD(ROUND(J15/100,0),10)^2)*$B$1</f>
+        <v>3.0837400000000001</v>
       </c>
       <c r="O15">
-        <f t="shared" si="6"/>
-        <v>1.1834593350562232</v>
+        <f t="shared" ref="O15" si="12">(COS(RADIANS(B15/2))^2)/SIN(RADIANS(B15/2))+(COS(RADIANS(B15/2))^2)/RADIANS(B15/2)</f>
+        <v>7.5124129162108471</v>
       </c>
       <c r="P15">
-        <f t="shared" si="7"/>
-        <v>6.294963439995783</v>
+        <f t="shared" ref="P15" si="13">M15/L15</f>
+        <v>6.2052032862841484</v>
       </c>
     </row>
   </sheetData>
@@ -4406,8 +4406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26FD086-5D7A-4A3E-816B-011E2CEE4D20}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
